--- a/Git Commands.xlsx
+++ b/Git Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teleperformance-my.sharepoint.com/personal/goel_124_apac_teleperformance_com/Documents/DataScience&amp;Analytics/Ineuron/git_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="11_F25DC773A252ABDACC10484A191B75885BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED3EF769-AB72-443D-BC47-A03C057AC9A7}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="11_F25DC773A252ABDACC10484A191B75885BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F090A1C1-1F96-41B0-9091-363486A38646}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t xml:space="preserve">S.No. </t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>git config --global user.email "aks.akshit11@gmail.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone </t>
+  </si>
+  <si>
+    <t>git clone &lt;origin path&gt;</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/AksAkshit/git_practice.git</t>
+  </si>
+  <si>
+    <t>To clone an entire Github repo from hosted location via URL</t>
   </si>
 </sst>
 </file>
@@ -566,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,12 +943,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/Git Commands.xlsx
+++ b/Git Commands.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teleperformance-my.sharepoint.com/personal/goel_124_apac_teleperformance_com/Documents/DataScience&amp;Analytics/Ineuron/git_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="11_F25DC773A252ABDACC10484A191B75885BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F090A1C1-1F96-41B0-9091-363486A38646}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="11_F25DC773A252ABDACC10484A191B75885BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3850EF1-F936-4D4C-9E4C-66264AB89DD6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t xml:space="preserve">S.No. </t>
   </si>
@@ -136,9 +147,6 @@
     <t>git branch</t>
   </si>
   <si>
-    <t>To check the current branch, the user is working on.</t>
-  </si>
-  <si>
     <t>git branch -M main</t>
   </si>
   <si>
@@ -241,6 +249,27 @@
   </si>
   <si>
     <t>To clone an entire Github repo from hosted location via URL</t>
+  </si>
+  <si>
+    <t>git branch &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>git branch developera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To create a new branch </t>
+  </si>
+  <si>
+    <t>To check the branch list.</t>
+  </si>
+  <si>
+    <t>git checkout &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>git checkout developera</t>
+  </si>
+  <si>
+    <t>To switch to another branch and check it out into your working directory</t>
   </si>
 </sst>
 </file>
@@ -578,14 +607,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.42578125" style="2" customWidth="1"/>
@@ -775,10 +804,10 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -809,16 +838,16 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -826,19 +855,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -846,19 +875,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -866,44 +895,44 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -911,19 +940,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -931,16 +960,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -948,26 +977,50 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">

--- a/Git Commands.xlsx
+++ b/Git Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teleperformance-my.sharepoint.com/personal/goel_124_apac_teleperformance_com/Documents/DataScience&amp;Analytics/Ineuron/git_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="11_F25DC773A252ABDACC10484A191B75885BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3850EF1-F936-4D4C-9E4C-66264AB89DD6}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="11_F25DC773A252ABDACC10484A191B75885BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2491CA90-B5E4-4456-8AC9-F4DC5E3F0FE4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t xml:space="preserve">S.No. </t>
   </si>
@@ -270,6 +270,28 @@
   </si>
   <si>
     <t>To switch to another branch and check it out into your working directory</t>
+  </si>
+  <si>
+    <t>git push -u origin &lt;branch name&gt;
+or,
+git push origin &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>git push -u origin developera
+or,
+git push origin developera</t>
+  </si>
+  <si>
+    <t>To push the files available in stagging environment to the developera branch of the Github repo.</t>
+  </si>
+  <si>
+    <t>git merge &lt;branch name&gt;</t>
+  </si>
+  <si>
+    <t>git merge developera</t>
+  </si>
+  <si>
+    <t>To merge the specified branch into the current one.</t>
   </si>
 </sst>
 </file>
@@ -607,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,14 +1045,39 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/Git Commands.xlsx
+++ b/Git Commands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teleperformance-my.sharepoint.com/personal/goel_124_apac_teleperformance_com/Documents/DataScience&amp;Analytics/Ineuron/git_practice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goel.124\OneDrive - Teleperformance\DataScience&amp;Analytics\Ineuron\git_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="11_F25DC773A252ABDACC10484A191B75885BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2491CA90-B5E4-4456-8AC9-F4DC5E3F0FE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E98BFA-F2E5-48F0-93E7-A4B1525D3517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t xml:space="preserve">S.No. </t>
   </si>
@@ -292,6 +292,25 @@
   </si>
   <si>
     <t>To merge the specified branch into the current one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git branch –delete &lt;old branch name&gt;
+or,
+git branch -d &lt;old branch name&gt; </t>
+  </si>
+  <si>
+    <t>git branch –delete developera
+or,
+git branch -d developera</t>
+  </si>
+  <si>
+    <t>To delete a branch.</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>show all commits in the current branch’s history</t>
   </si>
 </sst>
 </file>
@@ -327,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -345,6 +364,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,14 +1102,38 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
